--- a/data/DDPtable.xlsx
+++ b/data/DDPtable.xlsx
@@ -5619,6 +5619,61 @@
         <v>503.0</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="n" s="2">
+        <v>44411.0</v>
+      </c>
+      <c r="B505" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>504.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n" s="2">
+        <v>44412.0</v>
+      </c>
+      <c r="B506" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>505.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="B507" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>506.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n" s="2">
+        <v>44414.0</v>
+      </c>
+      <c r="B508" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>507.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n" s="2">
+        <v>44415.0</v>
+      </c>
+      <c r="B509" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>508.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/DDPtable.xlsx
+++ b/data/DDPtable.xlsx
@@ -5674,6 +5674,17 @@
         <v>508.0</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="n" s="2">
+        <v>44416.0</v>
+      </c>
+      <c r="B510" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>509.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
